--- a/results_files/Sample/3-mst_file.xlsx
+++ b/results_files/Sample/3-mst_file.xlsx
@@ -91,9 +91,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -117,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,10 +155,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0">
@@ -159,10 +166,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0">
@@ -170,10 +177,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="0">
@@ -181,10 +188,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="0">
@@ -192,10 +199,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="0">
@@ -203,10 +210,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0">
@@ -214,10 +221,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="0">
@@ -225,10 +232,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0">
@@ -236,10 +243,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="0">
@@ -247,10 +254,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="0">
@@ -258,10 +265,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="0">
@@ -269,10 +276,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="0">
@@ -280,6 +287,32 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="A8" r:id="rId13"/>
+    <hyperlink ref="B8" r:id="rId14"/>
+    <hyperlink ref="A9" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="A10" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="A11" r:id="rId19"/>
+    <hyperlink ref="B11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="A13" r:id="rId23"/>
+    <hyperlink ref="B13" r:id="rId24"/>
+  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/results_files/Sample/3-mst_file.xlsx
+++ b/results_files/Sample/3-mst_file.xlsx
@@ -142,6 +142,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.340803146362305" customWidth="1"/>
+    <col min="2" max="2" width="10.340803146362305" customWidth="1"/>
+    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">

--- a/results_files/Sample/3-mst_file.xlsx
+++ b/results_files/Sample/3-mst_file.xlsx
@@ -142,11 +142,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.340803146362305" customWidth="1"/>
-    <col min="2" max="2" width="10.340803146362305" customWidth="1"/>
-    <col min="3" max="3" width="12.3634033203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
